--- a/documentacion/new_data/egresados3.xlsx
+++ b/documentacion/new_data/egresados3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:B685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3181,6 +3181,5478 @@
         </is>
       </c>
     </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Daniel Alfonso Rodríguez Torres</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/daniel-alfonso-rodr%C3%ADguez-torres-47b62a171</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Daniel Orlando Varón Gómez</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/orlando%C2%A0-gomez-esteban-5483566b?trk=public_profile_browsemap</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Nicolas Mateo Casas Ramos</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/nicolas-mateo-casas-ramos-5b10a8195?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Nicolas Andres Perea Higuera</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/nicol%C3%A1s-perea-b891b5196</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>David Fernando Gonzalez Castro</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/david-fernando-castro-gonzalez-78345490</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Andrea Carolina Gómez Vargas</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/andrea-carolina-g%C3%B3mez-vargas-800806146</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Andrés Felipe Cárdenas Hurtado</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/checkpoint/challengesV2/AQEE6a0UpAdtiAAAAYr1im7EzC5G5DL3W2gC1Wro-VCn4qkakdwQTgzJdpbcLEgug56glDZqybggMabrDX5W4mVFLoHBW4gvVw?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Laura Melisa Martinez Olivella</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://swe.org/brasil/laura-melisa-martinez-olivella/</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Brayan Steeven Hernandez Rodriguez</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/bshernandezr</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Camilo Eduardo Gómez Jiménez</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/camilo-eduardo-jimenez-lopez-0737b71ab?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Karen Lorena Buitrago Galindo</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://au.linkedin.com/in/karen-lorena-buitrago-galindo-32678057?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Diego Andrés Camargo Russi</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/diego-andr%C3%A9s-camargo-russi-33b341199</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Johan Erik Fajardo Cepeda</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://www.fiscalia.gov.co/colombia/wp-content/uploads/Escrito-de-Tutela-Jhony-Junior-Chadid-Blanco-2023-03.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Alberto Enrique Garcia Torres</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/alberto-garcia-torres-3bb43854</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>David Ricardo Villarreal Bermudez</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/david-ricardo-villarreal-bermudez-227594173</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Fabian Leonardo Guerrero Rojas</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UC6YgocTHXN9D1HObjBTiIUA</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Diego Alejandro Ruiz Martinez</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://mx.linkedin.com/in/diego-alejandro-ru%C3%ADz-mart%C3%ADnez-239a97257?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Pablo Andres Cubides Guerrero</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://repositorio.unal.edu.co/browse?type=author&amp;value=Cubides%20Guerrero,%20Pablo%20Andres</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Luis Antonio Zuluaga Ramirez</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://scholar.google.com/citations?user=J8t2yvEAAAAJ&amp;hl=es</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Simon David Castañeda Cardenas</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/simon-david-casta%C3%B1eda-cardenas-97738b106?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Carlos Esteban Guzman Avila</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/carlos-andres-guzman-avila-a0892658</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Paola Andrea Alzate Gaitán</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/paola-andrea-alzate-gait%C3%A1n-855a81101</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Henry Ramirez Cuervo</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/henry-ram%C3%ACrez-cuervo-a5b0831b7</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Juan Sebastian Bolivar Gutierrez</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-sebastian-bolivar-gutierrez-86a65753</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Diego Andrés Hernández Atehortúa</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/diego-hern%C3%A1ndez-atehort%C3%BAa-588840b4</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Andres Felipe Castro Camargo</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/andres-felipe-castro-camargo-570156130</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Michael Andres Salgado Salazar</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/pub/dir/Mike/Salgado/co-0-Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Ivan Rene Delgado Gonzalez</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://independent.academia.edu/IvanReneDelgadoGonzalez</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Anthony Alejandro Padilla Agrego</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/anthony-alejandro-padilla-agredo?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Jeider Alexander Hernandez Cruz</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jeider-alexander-hernandez-cruz-681775127</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Juan David Sierra Arias</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://www.tusclases.co/profesores/juan-david-sierra-arias.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Lady Rozo Lopez</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/lady-rozo-l%C3%B3pez-598a61155</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Juan Pablo Romero Perez</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-pablo-romero-p%C3%A9rez-6a4514219</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Julian David Pérez Sánchez</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juli%C3%A1n-david-p%C3%A9rez-s%C3%A1nchez-892793129</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Ramón Elías Montes Cárdenas</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/ramon-elias-montes-cardenas-36b753254</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Cristian Eduardo Sandoval Pineda</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/cesandovalp</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Rhonald Camilo Mendoza Sichaca</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/rhonald-camilo-mendoza-sichaca?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Claudie Shannon Villamar Ramirez</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/claudie-shannon-villamar-ram%C3%ADrez-26997b22b/en?trk=people-guest_people_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Cristian Raul Amaya Alba</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://estudiantes2016.grupocerros.org/deportista/atleta/75971#/ficha/75971</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Cristian Danilo Ramirez Vargas</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://repositorio.unal.edu.co/handle/unal/81538</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Nestor Orlando Romero Arismendi</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://www.researchgate.net/profile/Nestor-Arismendi</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Daniel Fernando Diaz Romero</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://co.pinterest.com/danielfernandodiazromero/</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Nicolas Guillen Hernandez</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/nicolasguillen88</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Daniela Idarraga Gomez</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/checkpoint/challengesV2/AQHrdVjVNPV5pgAAAYr1jyeeu_67akNmo0FXYJ4XeuflesHY195EWs1FPdDPW4RSsK-s8rBmEWptidfulcDh3-pYltq1B3BAOg?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Ivan Felipe Agudelo Amaya</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://losestudiantes.com/universidad-nacional/professors/ivan-felipe-agudelo-amaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>David Steven Moreno Lemus</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/david-steven-moreno-lemus-93316916a?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Rafael Eduardo Camargo Cely</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://www.fiscalia.gov.co/colombia/wp-content/uploads/Escrito-de-Tutela-Jhony-Junior-Chadid-Blanco-2023-03.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Jhonatan Alexis Saldarriaga Conde</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://slideplayer.es/slide/5406921/</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Julio Cesar Garcia Carrero</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jcgarciaca</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Omar Yecid Orjuela Rodriguez</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/omar-yecid-orjuela-rodr%C3%ADguez-5764b3195</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Juan Sebastian Florez Varon</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-sebastian-fl%C3%B3rez-var%C3%B3n-b47572130</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Oscar Antonio Acelas Upegui</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/checkpoint/challengesV2/AQGZQkiGigK5IwAAAYr1kCvObfSyRQx-TP_abkmpD3z8KOZZyCD-W7J_SzdBgkEwGdn7jr6PdkTXajNe7VVnSiiYmyB0i5P5Kw?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Juan David Gutierrez Herrera</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-david-guti%C3%A9rrez-herrera-0762311a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Pablo Andres Ardila Bernal</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/pardilav</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Carlos Andres Murcia Cañon</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://es-la.facebook.com/carlosandres.murciacanon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Mateo Romero Arcila</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mateo-romero-arcila-513460113?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Oscar Mauricio Diaz Rincón</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://es-la.facebook.com/oscarmauricio.rincondiaz.7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Juan Manuel Alvarez Duque</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-manuel-alvarez-duque-a17b72106?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Diego Fernando Escobar Sarmiento</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCjJBbhPuSFzUdNQwR7bUQGQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Jose Ivan Carpintero Nariño</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/ivan-carpintero-nari%C3%B1o-6b17b4130</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Camilo Andres Avila Torres</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://m.facebook.com/people/Camilo-Andres-Avila-Torres/100080724494896/</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Juan Sebastian Bolaños Tovar</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-sebastian-bola%C3%B1os-tovar-74b1b7141</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Nicolás Sandoval Montoya</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/nicolassandovalmontoya/en</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Diego Hernando Romero Roa</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/diego-hernando-romero-roa-6744b7195</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Ana Maria Garcia Castro</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://www.funcionpublica.gov.co/web/sigep/hdv/-/directorio/S1500877-4252-4/view</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Lorena Cortés Páez</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/lorenacortesp/?locale=es_LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>John Erick Ortiz Guzman</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/john-erick-ortiz-guzman-a721685a?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Sergio Nicolas Bautista Lopez</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/sergio-nicol%C3%A1s-bautista-l%C3%B3pez-b66170a5</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>David Alexis Sanchez Mendoza</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/dasm1</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Helmer Andres Avendaño Vargas</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/helmer-avenda%C3%B1o</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Omar Alexander Muñoz Rodriguez</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/checkpoint/challengesV2/AQHllLNigSxefwAAAYr1kiKZRDY6U-5AwGNvMBjGlpug0E2YigMKDSptd_Ff0Os8SmhU5CwVbKCxY-RL7e3euL2O-7kUs4Q_TA?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>David Wilson Romero Guzman</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://research.vu.nl/en/persons/david-wilson-romero-guzman</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Fabian Santos Bohorquez</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/fabian.santosbohorquez/</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Sergio Andres Moreno Sandoval</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/sergio-andr%C3%A9s-moreno-sandoval-467858169</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Edwin Fernando Sanabria Marroquin</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://www.larepublica.co/responsabilidad-social/lombricultura-y-un-albergue-las-apuestas-de-odebrecht-por-el-desarrollo-sostenible-2105025</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Camilo Andres Galvis Lara</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/pub/dir/+/Galvis+Lara?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Juan Sebastian Osorio Chaparro</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-sebasti%C3%A1n-osorio-chaparro-911229126</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Jorge Andres Valencia Mendez</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jorge-andr%C3%A9s-valencia-m%C3%A9ndez-06964127</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Fabian Hernando Rios Gutierrez</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/fabian-hernando-rios-gutierrez-a83900115?trk=public_profile_browsemap</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Elkin Moreno Soto</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/elkin-moreno-soto-988757139?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Sergio Andres Rodriguez Rojas</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>https://es-la.facebook.com/public/Sergio-Andres-Rodriguez-Rojas</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Ana Maria Villota Burbano</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/ana-mar%C3%ADa-villota-burbano</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Daniela Rodriguez Casallas</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/daniela-rodr%C3%ADguez-casallas-b9426497</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Oscar Leonardo Romero Forero</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/oscar-leonardo-romero-a02a7162</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Edwin Sneyder Gantiva Ramos</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/edwin-sneyder-gantiva-ramos-a1821b93</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Yulian Camilo Chamorro Vargas</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/julian-vargas-77449316a?trk=public_profile_browsemap_profile-result-card_result-card_full-click</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Froilan David Villarreal Barreto</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>https://m.facebook.com/froilan.barreto/</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Diego Alejandro Beltran Ortiz</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/dibelor</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Jeinson David Rincon Nuñez</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://it.linkedin.com/in/j-david-rinc%C3%B3n-n%C3%BA%C3%B1ez-ba1106110?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Camilo Andres Zorro Mendoza</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/camilo-zorro-412068b6?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Jessica Fernanda Salguero Ramirez</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/jessica.ramirezsalguero.9/?locale=es_LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Samy Fiorella Cruz Bolivar</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/checkpoint/challengesV2/AQF2aOYJr4wIKwAAAYr1lNQvNnvwKLeH6nCErA65vnLXVDV1tJSF6-_z1LOb5wQgYvDPKoTqrs6jJzMeb1aNEuuuWpInJFIg6g?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Jorge Andres Poveda Murcia</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jorge-andr%C3%A9s-poveda-murcia-94468591</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Natalia Rodriguez Figueroa</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://es.linkedin.com/in/natalia-rodriguez-figueroa-999a3118a?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>William Alexander Vaquiro Mendoza</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://www1.upme.gov.co/Entornoinstitucional/Documents/contratistas/Informe_contractual_persona_natural_31Julio2022.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Jorge Andres Arcila Posada</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jorge-arcila</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Gabriel Fernando Talero Rojas</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://losestudiantes.com/universidad-nacional/professors/gabriel-fernando-talero-rojas</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Freddy Hernan Martinez Quiñones</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://www.tecnoempleo.com/freddy-hernan-martinez-quinones.mpt</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>David Andres Rivas Tabares</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://scholar.google.com/citations?user=JQ3uv50AAAAJ&amp;hl=en</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Diego Javier Grajales Bustos</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/diego-javier-grajales-bustos-424234182?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Alfred Steven Saavedra Jimenez</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/alfred-steven-saavedra-jimenez-446474b1</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Diego Alexander Velandia Cardenas</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://es.linkedin.com/in/dialvec?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Juan David Ramirez Garzon</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-david-garz%C3%B3n-ram%C3%ADrez-05078b1a8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Jair Silva Herrera</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jair-silva-herrera-29278957</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Ivan Dario Gil Castro</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/iv%C3%A1n-dar%C3%ADo-gil-castro-35b812114</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Sebastian Roman Villafañe</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/in/sebastianromanv</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Juan Pablo Correa Pino</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juanpablocorreapino</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Juan David Gaitán Forero</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/checkpoint/challengesV2/AQFhrxqyYtMkWgAAAYr1ltRezzL4F8AxNB-Zf-6V98R4LmI1NVnZJc6KEWuMvrQKSAhbOydHCXYfzrAbFovNbBbr7k85b0wvSw?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Laura Hidalgo Hurtado</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lhh10</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Melissa Bustamante Diaz</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/melissa-bustamante-d%C3%ADaz-1a1986162</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Jhon Sebastian Rincon Baron</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jhsrinconba</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Edward Andrey Páez Reyes</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/BolivianaDeAviacion/photos/a.122628174529/10153028357279530/?type=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Oscar Alejandro Ochoa Guzman</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://co.pinterest.com/oaochoaguzman/</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Iván Darío Vanegas Pérez</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/idvanegasperez</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Juan David Ramos Lopez</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/authwall?trk=gf&amp;trkInfo=AQG8pn7yzfGU4wAAAYr1l6YY0j43IctfAlXiae84cmkW-jpy-WfNrnR4NxyjepMCWf5lRF63o7IKBgARb7GzG_TpOWIgNWV3MZBN-LKFFzYtkTXdXqu1fUYakApvA14BcJ-98Xw=&amp;original_referer=https://www.google.com/&amp;sessionRedirect=https%3A%2F%2Fco.linkedin.com%2Fin%2Fjuan-david-ramos-l%25C3%25B3pez-459a9712b</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Daniel Felipe Carvajal Bojaca</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/daniel-felipe-carvajal-bojac%C3%A1-7812711a3</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Carlos Mauricio Rubio Gómez</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/carlos-mauricio-rubio-g%C3%B3mez-817346193</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Nicolas Eduardo Calvo Tovar</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://es.linkedin.com/in/eduardo-calvo-jimenez-3ab339106?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Bayron German Florez Bautista</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/bayron-german-florez-bautista-2089b9192?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Julian David Alvarez Torres</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/julian-david-alvarez-torres-22943b1aa</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Robinson Bryan Rubio Parada</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=Robinson+Bryan+Rubio+Parada&amp;sca_esv=570303733&amp;source=hp&amp;ei=aw4cZevxJJbHkPIP1eCU8Ac&amp;iflsig=AO6bgOgAAAAAZRwce6_H21dx0MvxNJwZuH4DM7vyjvIA&amp;ved=0ahUKEwir06XY9dmBAxWWI0QIHVUwBX4Q4dUDCAo&amp;uact=5&amp;oq=Robinson+Bryan+Rubio+Parada&amp;gs_lp=Egdnd3Mtd2l6IhtSb2JpbnNvbiBCcnlhbiBSdWJpbyBQYXJhZGFIMlAAWCNwAHgAkAEAmAEAoAEAqgEAuAEDyAEA-AEB&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Juan Sebastián Peña Quintero</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-sebastian-pe%C3%B1a-quintero</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Camilo Andres Cuesta Cano</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/andres-camilo-cuesta-cuesta-81b03541</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Jefferson Manuel Rodriguez Garzon</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/manuel-rodriguez-garzon-1762ba3a</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Oscar Leonardo Ramirez Onatra</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/olramirezo</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>David Jose Garcia Garzon</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/pub/dir/David/Garc%C3%ADa+Garz%C3%B3n?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Christian Manuel Palacio Roya</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/christian-manuel-palacio-roya-557a682b?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Andres Alfonso Barrios Bernal</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/andresbarriosbernal/?hl=es-la</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Cesar Augusto Niño Molina</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>http://www.datajuridica.com/CESAR_AUGUSTO_NI%C3%91O.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Ivan Fernando Malagon Morales</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/iv%C3%A1n-fernando-malag%C3%B3n-morales-a5397b105</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Santiago Carvajal Castañeda</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>https://mt.linkedin.com/in/santiago-carvajal-c?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Luisa Fernanda Carrillo Correa</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/luisa-fernanda-carrillo-correa-9825b813</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Jose Andres Jaimes Sarmiento</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>https://co.pinterest.com/jajaimess/</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Cristian David Merchán Sarmiento</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/cdmerchans</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Sebastian Eduardo Chaparro Cuevas</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>https://repositorio.unal.edu.co/handle/unal/79872</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Jhon Jairo Mueses Quitiaquez</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jjmuesesq?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Sebastian Guillermo Pinzon Parra</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/sebastian-guillermo-pinzon-parra-51800a1a9</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Gerardo Andrés Dorado Jurado</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/gadoradoj</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Brian Camilo Gómez León</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/brian-camilo-gomez-leon</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Miguel Andres Torres Chavarro</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/miguelandrestorreschavarro-fullstack?trk=public_profile_browsemap</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Miguel Angel Castellanos Medrano</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/miguel-angel-castellanos-medrano</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Leonel Armando Vinasco Zapata</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://www.researchgate.net/profile/Leonel-Armando-Vinasco-Zapata</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Juan Pablo Gonzalez Torres</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-pablo-gonzalez-torres-69b466a7</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Juan David Mejia Ciro</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/juan-mejia-ciro/?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Julian Enrique Nieto Rodriguez</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://profiles.jobomas.com/julian.enrique.nieto.rodriguez</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Leonardo Andres Rodriguez Forero</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/leonardorodfor/?locale=es_LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Carlos Sebastian Cabral Serrato</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/carlos-sebasti%C3%A1n-cabral-serrato?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Natalia Estefania Paez Coy</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/estefania-paez-coy</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Julian Felipe Albarracin Gonzalez</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-felipe-albarrac%C3%ADn-caro</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Byron Martinez Martinez</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/checkpoint/challengesV2/AQGfBC644xJLOwAAAYr1nDGk371QXJjJyEyCX3pHE8Dv63iWgKWdxnDTzxq6-s0dcCy3zOeHQaO-3yIeRZJYyOBG4h5mFgAx6A?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>María Paula Gómez Cuervo</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/maria-paula-g%C3%B3mez-cuervo-76114b1b3</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Roberto David Sanchez Duarte</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/roberto-sanchez-duarte-668574164</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Juan Camilo Calero Espinosa</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-camilo-calero-espinosa-b237b1160</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Cristian Andres Rodriguez Cuellar</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/cristian-andr%C3%A9s-rodr%C3%ADguez-cuellar-081333279?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Yezid Garcia Medina</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/ygm1mecatronico</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Juan Camilo Giraldo Garnica</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-camilo-giraldo-garnica-390137191</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Miguel Angel Borja Acevedo</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/miguel-angel-borja-acevedo-92b13a127</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Oscar Daniel Chitiva Pintor</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/oscar-daniel-chitiva-pintor-7aa524b3</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Mauricio Andres Molina Moreno</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>https://www.slideshare.net/maomolina14</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Sebastian Gonzalez Forero</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/sebastiangonzalezforero</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Adriana Lucía Sánchez Ospina</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/checkpoint/challengesV2/AQF1LjhVkMYl1QAAAYr1nW7o8QpJCCcYiKDJPv39oAJu1iN5TIEbJGqE0k9HTq6aO1h37vISPHLzfvz9dMy87Ynv4lzkPR0UNQ?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Yenny Disney Moyano Lopez</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>https://profiles.jobomas.com/yenny.disney.moyano.lopez.moyano.lopez</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Carlos Eduardo Urrego Morales</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/carlos-eduardo-urrego-morales-04006463?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Camilo Humberto Jimenez Linares</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/camilo-jim%C3%A9nez-linares-8475b4200</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Sergio Alejandro Gómez Gómez</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/sergio-alejandro-g%C3%B3mez-vel%C3%A1squez-500380208</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Ceudiel Alexis Valero Portilla</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>https://repositorio.unbosque.edu.co/handle/20.500.12495/6586</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Andrés Eduardo Tuta López</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>https://slideplayer.es/slide/5545782/</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Fabian Leonardo Aguilar Aguilar</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>https://repositorio.uniandes.edu.co/handle/1992/52332/browse?authority=c5ce1008-1f53-493a-88db-6ac081585b72&amp;type=author</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Rosali Estefany Meneses Meneses</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/estefany-meneses-meneses-905048b6?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Daniel Fernandez Vera</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/daniel.fernandezvera.739/?locale=es_LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Marisol Castañeda Garcia</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/marisol-casta%C3%B1eda-garc%C3%ADa-97b848138</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Rodolfo Martinez Mora</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/rmartinezmo</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Laura Daniela Barrera Torres</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/laura-barrera-torres-ba25b2140</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Andres Augusto Herrera Morales</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/andresherreramorales</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Kevin Stid Ramirez Garzón</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>https://prezi.com/p/faycwqydshnd/entropia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Erika Fernanda Lozano Cruz</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/erika-fernanda-lozano-cruz-75a44494</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Juan Pablo Garcia Pulido</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juanpgarcia92?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Santiago Cortes Arias</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/santiago-cort%C3%A9s-arias-4175ba147</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Cesar David Montañez Guerrero</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/cesar-david-guerrero-monta%C3%B1ez-51639224b</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Cristian Esteban Urrego Villa</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/cristian-esteban-urrego-villa-a78506a7</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Luis Fernando Castro Peralta</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/lfcastrop</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Julian Simon Mejia Villar</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/julian-simon-mejia-villar</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Jorge Luis Doria Ortiz</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>https://m.facebook.com/people/Jorge-Luis-Doria-Ortiz/804618878/</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Gabriela Suarez Carvajal</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/gabriela-su%C3%A1rez-carvajal-72614281</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Daniel Alejandro Arévalo Peña</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/daniel-alejandro-arevalo-pe%C3%B1a</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Angie Rocío Solórzano Ramírez</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/angie-sol%C3%B3rzano-ram%C3%ADrez-142a76a6?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Camila Andrea Avila Ortiz</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/camila-avila-ortiz-788545176</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Andrea Suaza Montalvo</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>https://scholar.google.com/citations?user=d3eKzx4AAAAJ&amp;hl=es</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Nicolas Cuervo Benavides</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/primer_cuervo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Sergio Alejandro Diaz Pinilla</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/checkpoint/challengesV2/AQEArH5LdyR6dwAAAYr1oP4rPvb2u1SUYbS1joklopcAw1vmUdmsZ_Fq4MK3E8hZPD1FR31eAJzhAuDiUlJRR55lBFW-0-N_xA?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Nicolas Rodriguez Rubiano</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/nirodriguezru</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Ana Maria Morales Coronado</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/pub/dir/Ana+Maria/Morales+Coronado</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Mateo Rodríguez Rodríguez</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/mateo-rodriguez-rodriguez-8b1245120</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Al Sebastian Pinillos Marquez</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/alspmarquez</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>John Alejandro Ramos Bohorquez</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/john-alejandro-ramos-boh%C3%B3rquez-06a95357?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>David Esteban Figueredo Ramirez</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCGx38XifjT-U0IRvz5fZvNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Luis Ernesto Sanchez Amaya</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=Luis+Ernesto+Sanchez+Amaya&amp;sca_esv=570303733&amp;source=hp&amp;ei=2BAcZfTwKPnGkPIPm-KT6A0&amp;iflsig=AO6bgOgAAAAAZRwe6OT8DSZr3Qzc6vvyGWqhLk8L1Ehb&amp;ved=0ahUKEwj0vLiA-NmBAxV5I0QIHRvxBN0Q4dUDCAo&amp;uact=5&amp;oq=Luis+Ernesto+Sanchez+Amaya&amp;gs_lp=Egdnd3Mtd2l6IhpMdWlzIEVybmVzdG8gU2FuY2hleiBBbWF5YUg4UABYJnAAeACQAQCYAQCgAQCqAQC4AQPIAQD4AQE&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Johan Sebastian Bautista Rodriguez</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/authwall?trk=gf&amp;trkInfo=AQG2Apa4b1fu-wAAAYr1ogZYEEV7Lv5jpN6VuXgpOEbXeO33Ri-C_jg0eWu-uRIZJ3hPIIIVOefe4YmfgUoDiQ1rVkK6xQol-pJL3orWytQ8xHBBKQyrFBLMZeshPcfnr4Esraw=&amp;original_referer=https://www.google.com/&amp;sessionRedirect=https%3A%2F%2Fwww.linkedin.com%2Fin%2Fjohan-sebastian-bautista-rodriguez-589543126</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Luis Carlos Bohórquez Garzón</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/authwall?trk=gf&amp;trkInfo=AQGw87hWimhbwAAAAYr1oh3Iy47C0pMMI2Hyca37UMavSR7p865tuYCH0qA3U_Cg8FTWe26CkCIBPjA70vXd_0sZHkfsMsiBaFnpE9coz89R9L2XCaKUFqdTo-y4i2iEb248pA4=&amp;original_referer=https://www.google.com/&amp;sessionRedirect=https%3A%2F%2Fco.linkedin.com%2Fin%2Fluis-carlos-bohorquez-garzon%2Fen%3Ftrk%3Dpeople-guest_people_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Andrea Romero Millan</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/checkpoint/challengesV2/AQGSCztLeMNbPgAAAYr1ojmbPSEpV08HuEkBneZ_cqNhcQt3TuIdyBvZrgDCpJudcRfkaLiUqkIeW8-1KLQhcqKIAKp38yWwXw?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Ivan Oswaldo Penagos Jimenez</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>https://catalogo.uexternado.edu.co/cgi-bin/koha/opac-detail.pl?biblionumber=77610&amp;shelfbrowse_itemnumber=101707</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Julián Camilo Jimenez Moreno</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/authwall?trk=gf&amp;trkInfo=AQEsl_o3N0oS4QAAAYr1ooso9FI9DKNypb2RsueXJbJ9I17mr27-GEtNmx2gsFM5ho1i3X_2rvSTmhWlMZS5F3t2oAVYr5pRQIVRgrlEwFxisHJqWNLfExkJRUcjS6ORXmdHk0E=&amp;original_referer=https://www.google.com/&amp;sessionRedirect=https%3A%2F%2Fco.linkedin.com%2Fin%2Fjimenez-julian</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Jhonatan Esteban Restrepo Duque</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/authwall?trk=gf&amp;trkInfo=AQEpzQDXTlnwfAAAAYr1oqKYpwEZEGCPSs1gv4C2QYTBHsLCDplemeXWTCd_tFopLURhp2yWvfD0j8fhDgc9aS-lhBbVqAVConFKEb9adRhewVmdok7rmM3yl-p67ohhvLdLzMo=&amp;original_referer=https://www.google.com/&amp;sessionRedirect=https%3A%2F%2Fco.linkedin.com%2Fin%2Fjhonatan-esteban-restrepo-duque-299066229</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Johanna Carolina Hernandez Silva</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/authwall?trk=gf&amp;trkInfo=AQEmdTIUYD6CZwAAAYr1osmotiakfU-YvI3kZlGHOyg52QQTH4QVbkhekbh7g_n9pE3cMFKSmwL4aAiL5LfbzZ-cqN3vBv0SesOtrtzR1QePvRWLBFCBuY34fZaEq0GrQWPdtP0=&amp;original_referer=https://www.google.com/&amp;sessionRedirect=https%3A%2F%2Fco.linkedin.com%2Fin%2Fjohannachern%25C3%25A1ndezsilva</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Sebastian Moreno Ramirez</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/authwall?trk=gf&amp;trkInfo=AQFi9-255yB6CAAAAYr1ouEYylMpggyphrObLEXlZyVahAwstPDW3B5-PcVZCT5aqG4QEsq7-wmpq8BCzEHSRWFtAjhEBVsI77kecX7ONIyi_XbywAhKMCJOcTJR_5O8q_FcNlA=&amp;original_referer=https://www.google.com/&amp;sessionRedirect=https%3A%2F%2Fco.linkedin.com%2Fin%2Fsebastian-moreno-ramirez-8348b422b</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Daniel Esteban Rosero López</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/authwall?trk=gf&amp;trkInfo=AQF4CLYqqTHwUwAAAYr1oviIJaGLSIo57-MgPnN76EZXTvLfOhdSZJWc1XgbzromNcgR_wEBuCjF0EPKQyY5HNxUxko5bILqRyl4UuT8lvqdoHeMvtO35RAiymBqkDyTTXuOhS0=&amp;original_referer=https://www.google.com/&amp;sessionRedirect=https%3A%2F%2Fco.linkedin.com%2Fin%2Fdaniel-esteban-rosero-l%25C3%25B3pez-22b01249</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Carlos Andres Pinzon Loaiza</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>https://erasmusu.com/it/carlos-andres-pinzon-loaiza-1300205</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Jorge Leonardo Barbosa Rodriguez</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/authwall?trk=gf&amp;trkInfo=AQFdyKAOxepXDAAAAYr1oytQUczZhbJzegOG8zpHsVivOfLwnJl4fAKx5DIVvgUfCSkNHINmMHcl93IhvW4ZSVdJuO2zB3eb_y_CHfKGwCyMxJ7optjK700axDgafHKFioVrj28=&amp;original_referer=https://www.google.com/&amp;sessionRedirect=https%3A%2F%2Fco.linkedin.com%2Fin%2Fleonardo-barbosa-3180631a5</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Julian Enrique Nieto Rodriguez</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>https://profiles.jobomas.com/julian.enrique.nieto.rodriguez</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Julian Enrique Nieto Rodriguez</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>https://profiles.jobomas.com/julian.enrique.nieto.rodriguez</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Julian Enrique Nieto Rodriguez</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>https://profiles.jobomas.com/julian.enrique.nieto.rodriguez</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Mario German Valderrama Romero</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mario-g-valderrama-romero-b4b190145/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Julian Enrique Nieto Rodriguez</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>https://profiles.jobomas.com/julian.enrique.nieto.rodriguez</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Mario German Valderrama Romero</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mario-g-valderrama-romero-b4b190145/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Leonardo Andres Rodriguez Forero</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/leonardorodfor/?locale=es_LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Carlos Sebastian Cabral Serrato</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/carlos-sebasti%C3%A1n-cabral-serrato/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Natalia Estefania Paez Coy</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/estefania-paez-coy/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Julian Felipe Albarracin Gonzalez</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/juan-felipe-albarrac%C3%ADn-caro/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Byron Martinez Martinez</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/bdmartinezm/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>María Paula Gómez Cuervo</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/maria-paula-g%C3%B3mez-cuervo-76114b1b3/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Roberto David Sanchez Duarte</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/roberto-sanchez-duarte-668574164/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Juan Camilo Calero Espinosa</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/juan-camilo-calero-espinosa-b237b1160/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Cristian Andres Rodriguez Cuellar</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/cristian-andr%C3%A9s-rodr%C3%ADguez-cuellar-081333279/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Yezid Garcia Medina</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ygm1mecatronico/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Omar Javier Quintero Delvasto</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/javier-quintero-delvasto/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Eliana Marcela Gómez Navarrete</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>https://losestudiantes.com/universidad-nacional/professors/eliana-marcela-gomez-navarrete</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Juan Camilo Giraldo Garnica</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/juan-camilo-giraldo-garnica-390137191/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Yeison David Garcia Gomez</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/yeison-david-garcia-gomez-3b996058/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Miguel Angel Borja Acevedo</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/miguel-angel-borja-acevedo-92b13a127/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Oscar Daniel Chitiva Pintor</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/oscar-daniel-chitiva-pintor-7aa524b3/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Mauricio Andres Molina Moreno</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>https://www.slideshare.net/maomolina14</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Sebastian Gonzalez Forero</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/sebastiangonzalezforero/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Adriana Lucía Sánchez Ospina</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/adlsanchezos/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Yenny Disney Moyano Lopez</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>https://profiles.jobomas.com/yenny.disney.moyano.lopez.moyano.lopez</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Carlos Eduardo Urrego Morales</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/carlos-eduardo-urrego-morales-04006463/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Camilo Humberto Jimenez Linares</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/camilo-jim%C3%A9nez-linares-8475b4200/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Yesika Marlen Ramirez Cardenas</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/marlen-c%C3%A1rdenas-ram%C3%ADrez-1a9b9b246/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Sergio Alejandro Gómez Gómez</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/sergio-alejandro-g%C3%B3mez-vel%C3%A1squez-500380208/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Ceudiel Alexis Valero Portilla</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>https://repositorio.unbosque.edu.co/handle/20.500.12495/6586</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Christian Raul Hidalgo Pino</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/christian-ra%C3%BAl-hidalgo-pino-190245120/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Andrés Eduardo Tuta López</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>https://slideplayer.es/slide/5545782/</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Fabian Leonardo Aguilar Aguilar</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>https://repositorio.uniandes.edu.co/handle/1992/52332/browse?authority=c5ce1008-1f53-493a-88db-6ac081585b72&amp;type=author</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Santiago Esteban Guevara Rozo</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/santiago-guevara-rozo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Juliet Alexandra Jaime Huérfano</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/julietjaime/?locale=en_US</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Monica Estefania Girardot Camargo</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>https://www.virtualpro.co/noticias/fabrican-aleacion-de-niquel-valiosa-para-la-industria</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Rosali Estefany Meneses Meneses</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/estefany-meneses-meneses-905048b6/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Daniel Fernandez Vera</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/daniel.fernandezvera.739/?locale=es_LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Marisol Castañeda Garcia</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/marisol-casta%C3%B1eda-garc%C3%ADa-97b848138/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Rodolfo Martinez Mora</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/rmartinezmo/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Fabian Eduardo Ramos Torres</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>https://www.uac.edu.co/pregrado/ingenieria-industrial/</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Laura Daniela Barrera Torres</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/laura-barrera-torres-ba25b2140/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Andres Augusto Herrera Morales</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/andresherreramorales/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Julian Alberto Cendales Sanchez</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/julian-cendales-sanchez-94a04a92/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Kevin Stid Ramirez Garzón</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>https://prezi.com/p/faycwqydshnd/entropia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Erika Fernanda Lozano Cruz</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/erika-fernanda-lozano-cruz-75a44494/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Juan Pablo Garcia Pulido</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/juanpgarcia92/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Santiago Cortes Arias</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/santiago-cort%C3%A9s-arias-4175ba147/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Cesar David Montañez Guerrero</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/cesar-david-guerrero-monta%C3%B1ez-51639224b/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Virgilio Andres Perez Castro</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/virgilio-andres-perez-alvarez-8444a729/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Cristian Esteban Urrego Villa</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/cristian-esteban-urrego-villa-a78506a7/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Natalia León Patiño</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/nleonp/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Luis Fernando Castro Peralta</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/lfcastrop/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Julian Simon Mejia Villar</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/julian-simon-mejia-villar/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Jorge Luis Doria Ortiz</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>https://m.facebook.com/people/Jorge-Luis-Doria-Ortiz/804618878/</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Gabriela Suarez Carvajal</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gabriela-su%C3%A1rez-carvajal-72614281/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Daniel Alejandro Arévalo Peña</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/daniel-alejandro-arevalo-pe%C3%B1a/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Angie Rocío Solórzano Ramírez</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/angie-sol%C3%B3rzano-ram%C3%ADrez-142a76a6/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Camila Andrea Avila Ortiz</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/camila-avila-ortiz-788545176/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Darling Katherine Rubio Ortiz</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>https://www.sciencedirect.com/science/article/abs/pii/S0308814620302417</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Andrea Suaza Montalvo</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>https://scholar.google.com/citations?user=d3eKzx4AAAAJ&amp;hl=es</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Nicolas Cuervo Benavides</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/primer_cuervo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Gabriel Giovanni González Galindo</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/gabriel-giovanni-gonzalez-galindo-a60b09158/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Sergio Alejandro Diaz Pinilla</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/seradiazpin/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Nicolas Rodriguez Rubiano</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/nirodriguezru/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Diana Marcela Montaña Silva</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/diana-marcela-monta%C3%B1a-silva-74483b65/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Ana Maria Morales Coronado</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/search/results/people/?firstName=Ana%2BMaria&amp;lastName=Morales%2BCoronado&amp;origin=SEO_PSERP&amp;sid=5AQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Mateo Rodríguez Rodríguez</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mateo-rodriguez-rodriguez-8b1245120/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Al Sebastian Pinillos Marquez</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/alspmarquez/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>John Alejandro Ramos Bohorquez</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/john-alejandro-ramos-boh%C3%B3rquez-06a95357/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>David Esteban Figueredo Ramirez</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UCGx38XifjT-U0IRvz5fZvNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Luis Ernesto Sanchez Amaya</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=Luis+Ernesto+Sanchez+Amaya&amp;sca_esv=570352775&amp;source=hp&amp;ei=ShgcZayjMrrikPIPpbGA8A4&amp;iflsig=AO6bgOgAAAAAZRwmWs2zAy2lVf4TNyXHyPlVgSdOmSF7&amp;ved=0ahUKEwis8K6N_9mBAxU6MUQIHaUYAO4Q4dUDCAo&amp;uact=5&amp;oq=Luis+Ernesto+Sanchez+Amaya&amp;gs_lp=Egdnd3Mtd2l6IhpMdWlzIEVybmVzdG8gU2FuY2hleiBBbWF5YUg1UABYJ3AAeACQAQCYAQCgAQCqAQC4AQPIAQD4AQE&amp;sclient=gws-wiz&amp;bshm=rimc/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Mauricio Esteban Tapia Arce</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/mauricio-esteban-tapia-arce-9458b4175/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Omar Leonardo Zambrano Pulgarin</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/olzambranop/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Johan Sebastian Bautista Rodriguez</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/johan-sebastian-bautista-rodriguez-589543126/</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Luis Carlos Bohórquez Garzón</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/luis-carlos-bohorquez-garzon/?locale=en_US</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Andrea Romero Millan</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/andrea-romero-millan/?originalSubdomain=fr</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Rodrigo Achury Duarte</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/channel/UC3bow_RbXEBVriUFhIU22nw</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Ivan Oswaldo Penagos Jimenez</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>https://catalogo.uexternado.edu.co/cgi-bin/koha/opac-detail.pl?biblionumber=77610&amp;shelfbrowse_itemnumber=101707</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Julián Camilo Jimenez Moreno</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/jimenez-julian/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Jhonatan Esteban Restrepo Duque</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/jhonatan-esteban-restrepo-duque-299066229/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Lorena Salamanca Rojas</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/lorenasalamanca/?originalSubdomain=nl</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Johanna Carolina Hernandez Silva</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/johannachern%C3%A1ndezsilva/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Sebastian Moreno Ramirez</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/sebastian-moreno-ramirez-8348b422b/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Daniel Esteban Rosero López</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/daniel-esteban-rosero-l%C3%B3pez-22b01249/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Carlos Andres Pinzon Loaiza</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>https://erasmusu.com/it/carlos-andres-pinzon-loaiza-1300205</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Jorge Leonardo Barbosa Rodriguez</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/leonardo-barbosa-3180631a5/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Laura Viviana Ramírez Cortés</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/laura-viviana-ramirez-cortes-b353a3115/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Juan Pablo Rodriguez Hernandez</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/juan-pablo-rodriguez-hernandez-21a064161/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Fabian Camilo Prato Cardenas</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/prato10/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Nicolas Malpic Forero</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/nmalpicf/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Juan Esteban Caicedo Palacio</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/juan-esteban-caicedo-0ba760179/?originalSubdomain=fr</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Sergio Duban Garcia Gil</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/duban-garcia-gil-32293b13b/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Heiver Andres Torres Rincon</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>https://construyored.com/profesionales/42599-heiver-andres-torres-rincon</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Oscar Alexander Velandia Aponte</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/oscar-alexander-velandia-9b3982148/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Edward Antonio Beleño Ortiz</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/edward-antonio-beleno-ortiz-020733166/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Joan Camilo Poveda Fajardo</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/joan-camilo-poveda-fajardo-2a0b49116/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Cristhiam Felipe Pulido Riveros</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/cristhiam-pulido/?originalSubdomain=de</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Hector Antonio Henao Luengas</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/antonio-henao3222477247/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Elizabeth Rodriguez Carreño</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/elizabeth-rodr%C3%ADguez-carre%C3%B1o-56403612b/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Ingrid Dallana Morales Zoque</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ingrid-dallana-morales-zoque-b1a679149/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Carlos Javier Enriquez Chenas</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/carlos.ec.50/?locale=es_LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Leslie Vanessa Sánchez Castillo</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/leslie-vanessa-133016/?originalSubdomain=ca</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Javier Fernando Beltrán Pérez</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/javier-fernando-p%C3%A9rez-beltr%C3%A1n-b1779339/?originalSubdomain=pe</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Julián David Hernández Tovar</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/julian.d.hernandez.12/?locale=en_GB</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Felipe Andrés Villamil Quintero</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/felipe-andr%C3%A9s-villamil-quintero-96a7a4143/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Javier Enrique Ibáñez Ortiz</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>https://m.facebook.com/public/Javier-Enrique-Ib%C3%A1%C3%B1ez-Ortiz?locale2=es_LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Mauro Herrera Pupo</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/maurohe26/</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>María Camila Páez Páez</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/maria-camila-p%C3%A1ez-p%C3%A1ez-1a681a1a7/?locale=en_US</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Daniel Alejandro Castaneda Acero</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/daniel-alejandro-casta%C3%B1eda-acero-51b4871b4/?locale=fr_FR</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Andres Felipe Beltran Osorio</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/andres-felipe-beltran-osorio-477938127/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Ayling Zurieth Peña Martinez</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/ayling-pe%C3%B1a-martinez-3430b7186/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Juan Diego Martinez Arias</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/juan-diego-martinez-arias-4b5a57148/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>German Alberto Rojas Galindo</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/germanrojasgalindo/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Andres Felipe Serrano Medina</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>https://repositorio.unal.edu.co/handle/unal/83425</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Julian David Garcia Jimenez</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/julian-david-garcia-jimenez-22510154/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>David Camilo Tafur Cubillos</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/david-camilo-tafur-cubillos-299ba4222/?trk=people-guest_people_search-card&amp;originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Diego Andres Montealegre Garcia</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/damg1987/?originalSubdomain=co</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Claudia Eugenia Berdugo Diaz</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Vladimir Cárdenas Bocanegra</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>https://repositorio.unal.edu.co/browse?type=author&amp;value=C%C3%A1rdenas%20Bocanegra,%20Vladimir%20Alfonso</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Andres Halliday Martinez</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/andres-halliday-martinez?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Johan José Castañeda Vega</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>https://es-la.facebook.com/public/Jose-Johan-Casta%C3%B1eda</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>John Erick Quiroga Gonzalez</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/john-erick-quiroga-gonzalez-b5334018b</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Sergio Montes Figueredo</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>https://de.linkedin.com/in/sergio-montes-figueredo-60004919a/en?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Favian Henrike Angarita Cubillos</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>http://bienestar.bogota.unal.edu.co/pdf/gestion/d83_0905170400_adj_ged.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Jesus Emilio Mojica Galvis</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>https://www.academia.edu/4726764/DETERIORO_DE_ECOSISTEMAS_Y_P%C3%89RDIDA_DE_BIODIVERSIDAD_articulo_final</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Pedro Pablo Rojas Quiroga</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/pedro-pablo-rojas-quiroga-a2154999</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Juan Fernando Bohórquez Rodríguez</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>https://co.pinterest.com/jbohrquezrodrguez/</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Alvaro Raul Montaña Olivares</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>https://repositorio.escuelaing.edu.co/handle/001/765/statistics?locale-attribute=es</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Angelica Chitiva Reyes</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>https://ca.linkedin.com/in/angelica-chitiva-reyes/en?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Luis Eduardo Sanchez Leon</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/luis-eduardo-sanchez-leon-357044152?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Andrea Marcela Baron Collazos</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/andrea-marcela-baron-collazos-5796b21ab</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Hector Camilo Higuera Florez</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>https://www.ucatolica.edu.co/portal/Docente/hector-camilo-higuera-florez/</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Andrés Felipe Galeano Guzmán</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/andresgaleanoguzman</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Maria Paula Sierra Caceres</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>https://es-es.facebook.com/public/Maria-Paula-Sierra-Caceres</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Carlos Andrés Riveros Guio</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/carlos-andr%C3%A9s-riveros-guio-a16112127</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Samuel Antonio Cabezas Tibaquicha</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/samuelcabezas</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Esteban David Pardo Arango</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/esteban-david-pardo-arango-62a932129?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Nelson David Navarro Diaz</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/checkpoint/challengesV2/AQEk6SMozPOYlwAAAYr1yL-L97nvr4CVwlLUog5Sy2GUAq_A39nnLtl87DRD-RxssRwAlRqV1RLMM6qkGu8ZIelk_S3SfvY9Sw?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Juan Camilo Garcia Ortiz</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-camilo-garc%C3%ADa-ort%C3%ADz-52816b59</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Laura Angelica Melo Toro</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/laura-camila-melo-toro-b91287138</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Laura Catalina Cruz Avila</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/pub/dir/Laura+Catalina/Cruz+Avila?trk=public_profile_samename-see-all</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Joaquin Alonso Jimenez Caviedes</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/joaqu%C3%ADn-alonso-jim%C3%A9nez-caviedes-0a9744114</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Elizabeth Amado Peña</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/elizabeth-amado-pe%C3%B1a-aa934a185</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Andrés Felipe Torres Andrade</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/andrestorresa?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Diana Carolina Cruz Palacios</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/dccruzp</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Juan David Alarcon Castiblanco</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-david-alarcon-engineer-projects-analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Bryan Andres Rico Quevedo</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/baricoq</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Jorge Alexander Menjura Gordillo</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/alexander-menjura-gordillo-3a99b3147</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Nelson Alejandro Rincon Pinzon</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>https://unal.academia.edu/NelsonAlejandroRinconPinzon</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Diana Carolina Prada Rodríguez</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/diana-carolina-prada-rodriguez-4b6537162</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Maribel Rocio Romero De La Hoz</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>https://independent.academia.edu/MaribelRocioRomeroDeLaHoz</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Juan Sebastian Hernandez De La Cruz</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-sebastian-hernandez-de-la-cruz-446a65b8?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Steven Espinosa Martinez</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/steven-espinosa-martinez-4101b51a6</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>David Esteban Garzon Rincon</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>https://co.pinterest.com/davidestebangarzonrincon/</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Javier Alejandro Rodriguez Olarte</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/javier-rodriguez-olarte</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Giovanny Fermin Albarracín Riveros</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>https://torre.ai/albarracingiovanny?r=IqqthgZe</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Jorge Andrés Lozano Gómez</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jorge-andr%C3%A9s-lozano-g%C3%B3mez-44a07b55</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Miguel Ángel Rivas Tabares</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>https://repositorio.unal.edu.co/browse?type=author&amp;value=Rivas%20Tabares,%20Miguel%20%C3%81ngel</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>David Ricardo Martinez Hernandez</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/david-ricardo-martinez-hernandez-418b8814a</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Ricardo Alfonso Villamizar Saenz</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>https://profiles.jobomas.com/ricardo.alfonso.villamizar.saenz</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Leidy Carolina Blanco Barragan</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/leidy-carolina-blanco-barrag%C3%A1n-705558186?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Rosa Elena Romero Florez</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/rosa-elena-romero</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Juan Sebastian Romero Fernandez</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>https://es.linkedin.com/in/juanromerofernandez?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Fabian Ricardo Sierra Gonzalez</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>https://m.facebook.com/fabian.r.gonzalez.52/</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Jonathan Andrés Campo Rangel</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jonathan-andres-campo-rangel</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Miller Alexander Correa Gonzalez</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/alexander-correa-gonzalez-75488042</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Sergio Steven Lopez Martinez</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>https://dblp.org/pid/226/7588.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Cristian David Bonilla Candela</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/pub/dir/+/Candela/co-0-Colombia?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Eurlin Alejandro Avila Becerra</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>https://construyored.com/profesionales/23549-eurlin-alejandro-avila-becerra</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Joseph Steven Zambrano Contreras</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>https://repositorio.uniandes.edu.co/browse?authority=f4d5c903-8a02-4fbe-a319-09882b0ae5a6&amp;type=author</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Carlos Leonardo Sarmiento Alcala</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>https://peaku.co/es/cv/68236-carlos-leonardo-sarmiento-alcala</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Juan Esteban Ramirez Gonzalez</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>https://www.researchgate.net/profile/Juan-Esteban-Ramirez-Gonzalez</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Fabian Antonio Perez Arias</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/fabian-antonio-perez-arias-42226616a?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Saúl Gregory Mendieta Galindo</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/saulgregory.mendietagalindo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Juan David Suarez Moreno</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juand24</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Maicol Andres Martinez Gonzalez</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/maicol-martinez-gonzalez-2b77b557</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Fabian Andres Rodriguez Becerra</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>https://www.worldcubeassociation.org/persons/2012BECE01</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Daniel Esteban Siabatto Cleves</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/dsiabatto</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Juan Pablo Berrio Suarez</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/juan-pablo-berrio-suarez-465031139</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Camilo Andres Sarmiento Casas</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/camilo-andres-sarmiento-180445154</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Diego Alejandro Sanchez Rodriguez</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>https://www.transfermarkt.co/diego-sanchez/profil/spieler/570524</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Luis Alejandro Sandoval Tamayo</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/luis-alejandro-sandoval-tamayo-988792b3?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Johan Sebastian Urrutia Burgos</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jsebastianurrutia</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>David Johanny Gomez Diaz</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/in/david-johanny-gomez-diaz-6212a5106/en?trk=public_profile_locale-url&amp;original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Diego Hernando Bastidas Gómez</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/diego-bastidas-b2108087</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>William Alfonso Suarez Ortiz</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>https://losestudiantes.com/universidad-nacional/professors/william-alfonso-suarez-ortiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Jhovany Andres Amaya Peña</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>https://research-hub.urosario.edu.co/display/n79627258</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Daniel Felipe Cruz Ramos</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/daniel-felipe-cruz-ramos-6815b5167</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Daniel Steeven Muñoz Castro</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>https://www.researchgate.net/profile/Daniel-Munoz-Castro</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Luis Guillermo Villalobos Espitia</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/pub/dir/Luis+Guillermo/Villalobos?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Jhon Alexander Zuluaga Arias</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jhon-alexander-zuluaga-arias-2a6758b5?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Diana Milena Barrero Gomez</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>https://pr.linkedin.com/pub/dir/Milena/Barrero?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Cristhian Camilo Omes Riapira</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/cristian-andres-riapira-gonzalez-1554125b</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Marla Yiseth Cristiano Vega</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/marla-yiseth-cristiano-vega-056926a5</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>William Andres Cañon Rodriguez</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/william-andres-ca%C3%B1on-rodriguez-8b06a8171</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Andres Felipe Bello Bello</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/andres-felipe-bello-bello-a7285070</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Mario Alberto Adame Escobar</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/maadamee</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Guerdy Alejandra Mendoza Rojas</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/guerdy-alejandra-mendoza-rojas-0601b8201</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Sandra Milena Mora Castiblanco</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/sandra-milena-mora-castiblanco-7003aa157?trk=public_profile_browsemap_mini-profile_title</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Heidy Catherine Cardenas Poveda</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/heidy-catherine-cardenas-poveda-b30839137?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Héctor Dennis Beltrán Sotomonte</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>https://es.linkedin.com/in/dennis-beltr%C3%A1n/en?trk=people-guest_people_search-card&amp;original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Ivan Dario Torres Rodriguez</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>https://m.facebook.com/ivandario.torresrodriguez/</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>John Ricardo Jimenez Leon</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jhon-ricardo-jimenez-leon-1b903588</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Harold Alberto Serrano Vargas</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/harold-alberto-serrano-vargas-116b351b8</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Paola Andrea Jimenez Parra</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/paola-jim%C3%A9nez-parra-365a80124</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Adolfo Byron Erazo Chalapud</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/adolfo-byron-erazo-chalapud-8a80b3210</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Héctor Augusto Daza Roa</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>https://www.elespectador.com/judicial/desarticulan-banda-que-enviaba-cocaina-a-eeuu-y-a-europa-article-461963/</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Juan Felipe Loaiza Cardona</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>https://m.facebook.com/juanfelipe.cardonaloaiza.7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Jorge Andres Barrera Aldana</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jorge-andr%C3%A9s-barrera-aldana-a46574204?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Nicholas Fernando Aristizabal Mejia</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>https://www.bogotaabierta.gov.co/313-nicholas-fernando-aristizabal-mejia/perfil</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Leonidas Trujillo Castellanos</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/leonidas-trujillo-castellanos-2aa43697</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Felipe Alberto Méndez Ríos</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/felipe-m%C3%A9ndez-638b0713a</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Manuel Alejandro Montero Suarez</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/manuel-alejandro-montero-suarez-a63670173</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Julio Cesar Cortes Sanchez</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>https://es-la.facebook.com/juliocesar.cortessanchez/</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Andres Mauricio Bautista Torres</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/nelson-mauricio-bautista-torres-0b732a191</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Andrés Leonardo Barrios Castiblanco</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>https://at.linkedin.com/in/andr%C3%A9s-leonardo-barrios-castiblanco-a64945232?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Jorge Humberto Piedrahita Ortiz</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jhpiedrahitao?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Kevin Andres Casallas Benitez</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/kevin-casallas-benitez-0b9a1a134</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Julian Santiago Oviedo Alvarez</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/julian-santiago-oviedo-alvarez-56b12112a</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Raúl Fernando Martínez Oviedo</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/checkpoint/challengesV2/AQGkwVdLVUI_KgAAAYr11tbf7rFAV8o6UKZZG0rrv7QyZ2aMXAMv8Ipod1HTZAIKccyh3b3gPghaFS8qdIgxwNGuNaID2cC2pQ?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Carlos Alberto Rojas Ovalle</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/carlos-alberto-rojas-ovalle-821655135</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Laura Marcela Forero Ramirez</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>https://fr.linkedin.com/in/laura-marcela-forero-ramirez-592327133?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Federico Julian Acosta Gonzalez</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/checkpoint/challengesV2/AQE-_BfiYrhSXAAAAYr11zPvaNoT42vCpCQ_KCGU_dJVaR0mZZMEZadN4XyG4elp7GoNSzmK93v7KvCuJ36bc-CkF23_GOQryg?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Diego Hernando Candil Rodriguez</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/diego-hernando-candil-rodriguez-525577151</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>María Alejandra Castro Gutiérrez</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/maria-alejandra-castro-guti%C3%A9rrez-800246209</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Ariadna Cathalina Rodriguez Castillo</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/ariadna-cathalina-rodriguez-castillo-37662359?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Pedro Alejandro Tibaduiza Viancha</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/pedro-alejandro-tibaduiza-vianch%C3%A1-0433a131</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Sergio Giovanny Fonseca Qader</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/sergio-giovanny-fonseca-qader-33625715a</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Jonathan Alexander Gomez Rodriguez</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>https://www.tusclases.co/profesores/jonathan-alexander-gomez.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Alexander Chaparro Romero</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>https://siesia.unal.edu.co/alumni/m/resume/view/curriculum_alexander_chaparro_romero</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>David Alejandro Tunjuelo Méndez</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/david-alejandro-tunjuelo-m%C3%A9ndez-768942136</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Francisco Javier Arevalo Montaña</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/francisco-javier-ar%C3%A9valo-monta%C3%B1a-bb6197137</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Luis David Lopez Buitrago</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/luis-david-lopez-buitrago-42b948180</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Jhair Fabian Pinzon Rodriguez</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/checkpoint/challengesV2/AQFvt-dJbTQG0wAAAYr12FTagp7de90kMiLC_j0F7IMpBganEuvFOvXKT_zeKV3Qf2WNU3vD39NwfCc4NATimXXgjvtSwVPaOQ?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Andres Felipe Rodriguez Martinez</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/andr%C3%A9s-felipe-rodr%C3%ADguez-mart%C3%ADnez-250782143</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Luis Enrique Hernandez Suarez</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/luis-enrique-hern%C3%A1ndez-su%C3%A1rez-1a9320b6</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>María Camila Fernández Berbeo</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/mar%C3%ADa-camila-fernandez-berbeo-73a3111b2?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Cristian Andres Melo Lopez</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/cristian-andres-melo-lopez-aa2ab91a0</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Diana Carolina Alvarez Chadid</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/diana-carolina-alvarez-chadid-7794a4134</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Sebastian Gustavo Moreno Baron</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/sebastian-gustavo-moreno-bar%C3%B3n-8313a3125?trk=public_profile_browsemap_profile-result-card_result-card_full-click</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>José Luis Parrado Quintana</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/jose-luis-parrado-quintana-618711103</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Cristian David Rodriguez Díaz</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/cristian-david-rodr%C3%ADguez-d%C3%ADaz-01416282</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Diego Alejandro Ramirez Perez</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/diego-alejandro-ram%C3%ADrez-p%C3%A9rez-43b6405a</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Diego Fernando Segura Moreno</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>https://co.linkedin.com/in/diego-fernando-segura-moreno-5b54aa9b</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Juan Felipe Valdión Epia</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?q=Juan+Felipe+Valdi%C3%B3n+Epia&amp;sca_esv=570352775&amp;source=hp&amp;ei=LB8cZZqVMbvF0PEP6_6-iA4&amp;iflsig=AO6bgOgAAAAAZRwtPLt2IYNeHQfWWWD1z0RxzT4EBYtt&amp;ved=0ahUKEwia28XVhdqBAxW7IjQIHWu_D-EQ4dUDCAo&amp;uact=5&amp;oq=Juan+Felipe+Valdi%C3%B3n+Epia&amp;gs_lp=Egdnd3Mtd2l6IhlKdWFuIEZlbGlwZSBWYWxkacOzbiBFcGlhSDRQAFgkcAB4AJABAJgBAKABAKoBALgBA8gBAPgBAQ&amp;sclient=gws-wiz</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Juan Camilo Villamizar Saenz</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/juan-camilo-villamizar-saenz-a71591127/en?original_referer=https%3A%2F%2Fwww.google.com%2F</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
